--- a/quotation.xlsx
+++ b/quotation.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="25">
   <si>
     <t xml:space="preserve">Course </t>
   </si>
@@ -57,9 +57,6 @@
     <t xml:space="preserve">25k </t>
   </si>
   <si>
-    <t>?</t>
-  </si>
-  <si>
     <t>WorkShop</t>
   </si>
   <si>
@@ -76,6 +73,27 @@
   </si>
   <si>
     <t>15k/Day</t>
+  </si>
+  <si>
+    <t>Tableau</t>
+  </si>
+  <si>
+    <t>15k</t>
+  </si>
+  <si>
+    <t>PowerBI</t>
+  </si>
+  <si>
+    <t>35k</t>
+  </si>
+  <si>
+    <t>IBM Watson Cloud</t>
+  </si>
+  <si>
+    <t>30k</t>
+  </si>
+  <si>
+    <t>20k</t>
   </si>
 </sst>
 </file>
@@ -393,10 +411,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -412,7 +430,7 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -460,7 +478,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -468,31 +486,55 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>12</v>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" t="s">
         <v>14</v>
       </c>
-      <c r="C12" t="s">
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>16</v>
-      </c>
-      <c r="C13" t="s">
-        <v>15</v>
+      <c r="C15" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
